--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisa\3D Objects\UBB_2019-2020\Semestrul_II\Tasks\Tasks\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Desktop\VVSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D811829-F60C-4FE8-94DD-2947A73C9A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -302,11 +301,47 @@
   <si>
     <t>log.error(EXCEPTION);</t>
   </si>
+  <si>
+    <t>Notificator,50</t>
+  </si>
+  <si>
+    <t>Interrupted exception</t>
+  </si>
+  <si>
+    <t>Current thread gets interrupted</t>
+  </si>
+  <si>
+    <t>Notificator,42</t>
+  </si>
+  <si>
+    <t>Unnecesary if</t>
+  </si>
+  <si>
+    <t>2 if statements for 2 conditions to check</t>
+  </si>
+  <si>
+    <t>Merged if statements</t>
+  </si>
+  <si>
+    <t>Repetead message</t>
+  </si>
+  <si>
+    <t>Hardcoded messages when error occur</t>
+  </si>
+  <si>
+    <t>Added literal to encapsulate the error</t>
+  </si>
+  <si>
+    <t>TaskIO/80,94,301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupted exception is ignored </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -704,23 +739,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -756,23 +774,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,13 +949,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1279,14 +1280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1623,14 +1624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,14 +1961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2135,30 +2136,54 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="C15" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca\Desktop\VVSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\vvss\TasksGit2\Sunny\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="650" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="150">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -336,6 +336,174 @@
   </si>
   <si>
     <t xml:space="preserve">Interrupted exception is ignored </t>
+  </si>
+  <si>
+    <t>ArrayTaskList/142</t>
+  </si>
+  <si>
+    <t>"clone" should not be overridden</t>
+  </si>
+  <si>
+    <t>protected ArrayTaskList clone() throws CloneNotSupportedException</t>
+  </si>
+  <si>
+    <t>a fost adaugat un constructor de copiere</t>
+  </si>
+  <si>
+    <t>LinkedTaskList/187</t>
+  </si>
+  <si>
+    <t>protected LinkedTaskList clone() throws CloneNotSupportedException</t>
+  </si>
+  <si>
+    <t>LinkedTaskList/48</t>
+  </si>
+  <si>
+    <t>Fields in a "Serializable" class should either be transient or serializable</t>
+  </si>
+  <si>
+    <t>private static class Node</t>
+  </si>
+  <si>
+    <t>private static class Node implements Serializable</t>
+  </si>
+  <si>
+    <t>Task/177</t>
+  </si>
+  <si>
+    <t>clone should not be overridden</t>
+  </si>
+  <si>
+    <t>protected Task clone() throws CloneNotSupportedException</t>
+  </si>
+  <si>
+    <t>Task/96</t>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted</t>
+  </si>
+  <si>
+    <t>return !(this.interval == 0);</t>
+  </si>
+  <si>
+    <t>return this.interval != 0;</t>
+  </si>
+  <si>
+    <t>TaskList/29</t>
+  </si>
+  <si>
+    <t>Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <t>System.out.println(getTask(i).getTitle());</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TaskList/15</t>
+  </si>
+  <si>
+    <t>Abstract methods should not be redundant</t>
+  </si>
+  <si>
+    <t>public abstract Iterator&lt;Task&gt; iterator();</t>
+  </si>
+  <si>
+    <t>TasksOperations/17</t>
+  </si>
+  <si>
+    <t>System.out.println(start);</t>
+  </si>
+  <si>
+    <t>TasksOperations/18</t>
+  </si>
+  <si>
+    <t>System.out.println(end);</t>
+  </si>
+  <si>
+    <t>TasksOperations/24</t>
+  </si>
+  <si>
+    <t>System.out.println(t.getTitle());</t>
+  </si>
+  <si>
+    <t>TasksOperations/9</t>
+  </si>
+  <si>
+    <t>Declarations should use Java collection interfaces such as "List" rather than specific implementation classes such as "LinkedList"</t>
+  </si>
+  <si>
+    <t>public ArrayList&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>List&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>DateService/34</t>
+  </si>
+  <si>
+    <t>static base class members should not be accessed via derived types</t>
+  </si>
+  <si>
+    <t>Calendar calendar = GregorianCalendar.getInstance();</t>
+  </si>
+  <si>
+    <t>Calendar calendar = Calendar.getInstance();</t>
+  </si>
+  <si>
+    <t>DateService/41</t>
+  </si>
+  <si>
+    <t>TaskIO/19</t>
+  </si>
+  <si>
+    <t>private static final int secondsInDay = 86400;</t>
+  </si>
+  <si>
+    <t>private static final int SECONDS_IN_DAY = 86400;</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DA : ArrayTaskList/56 Conditia task.equals(null) e mereu falsa , inlocuita cu task == null                         TaskIO/82 fos.close() poate arunca NullPointerException inlocuita cu if(fos != null) fos.close();</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
 </sst>
 </file>
@@ -1630,8 +1798,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1748,112 +1916,162 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
@@ -1967,8 +2185,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2190,140 +2408,252 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="C22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="C23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="C24" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
